--- a/Assets/Excel/User/excelQuanLyHoSo.xlsx
+++ b/Assets/Excel/User/excelQuanLyHoSo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-laptop\source\repos\QuanLyHoSo\Assets\Excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D36AC6-B88C-4E9A-BA7C-718D39208DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5DEE514A-8B89-4CED-8B24-52FA0E4372BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{983BF663-EBD0-42F8-9DD9-1FB784FADBD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6500D19-DEB5-4622-BC80-384F250A846E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -85,20 +85,26 @@
     <t>TieuSu</t>
   </si>
   <si>
+    <t>taikhoan1</t>
+  </si>
+  <si>
+    <t>tài khoản 1</t>
+  </si>
+  <si>
     <t>/Assets/Images/Avatars/User/CVSP22G04B18DCDT003HP04Q02dR02.png</t>
   </si>
   <si>
-    <t>quyanh</t>
-  </si>
-  <si>
-    <t>diep</t>
+    <t>taikhoan2</t>
+  </si>
+  <si>
+    <t>đây là tài khoản 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +145,7 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,27 +485,28 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,27 +556,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>123123</v>
+        <v>123456</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>321321</v>
+        <v>123123</v>
       </c>
       <c r="H2">
         <v>3213</v>
@@ -578,10 +585,10 @@
         <v>44719</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>21312</v>
@@ -599,22 +606,66 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>12312311223</v>
+      </c>
+      <c r="H3">
+        <v>3213</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>21312</v>
+      </c>
+      <c r="M3">
+        <v>3123</v>
+      </c>
+      <c r="N3">
+        <v>3213</v>
+      </c>
+      <c r="O3">
+        <v>321321</v>
+      </c>
+      <c r="P3">
+        <v>312</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -624,93 +675,93 @@
       <c r="I5" s="1"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>

--- a/Assets/Excel/User/excelQuanLyHoSo.xlsx
+++ b/Assets/Excel/User/excelQuanLyHoSo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-laptop\source\repos\QuanLyHoSo\Assets\Excel\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7e3819a96646067/Tài liệu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5DEE514A-8B89-4CED-8B24-52FA0E4372BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{983BF663-EBD0-42F8-9DD9-1FB784FADBD2}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{5DEE514A-8B89-4CED-8B24-52FA0E4372BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C93B1CB-8FC0-4C39-81A4-529789900443}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6500D19-DEB5-4622-BC80-384F250A846E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +145,7 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,28 +485,28 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,66 +606,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>12312311223</v>
-      </c>
-      <c r="H3">
-        <v>3213</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44719</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>21312</v>
-      </c>
-      <c r="M3">
-        <v>3123</v>
-      </c>
-      <c r="N3">
-        <v>3213</v>
-      </c>
-      <c r="O3">
-        <v>321321</v>
-      </c>
-      <c r="P3">
-        <v>312</v>
-      </c>
       <c r="Q3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -675,93 +630,160 @@
       <c r="I5" s="1"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>123456</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>12312311223</v>
+      </c>
+      <c r="H15">
+        <v>3213</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>21312</v>
+      </c>
+      <c r="M15">
+        <v>3123</v>
+      </c>
+      <c r="N15">
+        <v>3213</v>
+      </c>
+      <c r="O15">
+        <v>321321</v>
+      </c>
+      <c r="P15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>123456</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>12312311223</v>
+      </c>
+      <c r="H20">
+        <v>3213</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>

--- a/Assets/Excel/User/excelQuanLyHoSo.xlsx
+++ b/Assets/Excel/User/excelQuanLyHoSo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7e3819a96646067/Tài liệu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-laptop\source\repos\QuanLyHoSo\Assets\Excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{5DEE514A-8B89-4CED-8B24-52FA0E4372BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C93B1CB-8FC0-4C39-81A4-529789900443}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF3E11-9D3E-4D2D-8E68-0703BAEE78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6500D19-DEB5-4622-BC80-384F250A846E}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -92,12 +89,6 @@
   </si>
   <si>
     <t>/Assets/Images/Avatars/User/CVSP22G04B18DCDT003HP04Q02dR02.png</t>
-  </si>
-  <si>
-    <t>taikhoan2</t>
-  </si>
-  <si>
-    <t>đây là tài khoản 3</t>
   </si>
 </sst>
 </file>
@@ -161,10 +152,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38B81C68-D88B-4E60-A453-28B536426E29}" name="Table1" displayName="Table1" ref="A1:P21" totalsRowShown="0">
-  <autoFilter ref="A1:P21" xr:uid="{38B81C68-D88B-4E60-A453-28B536426E29}"/>
-  <tableColumns count="16">
-    <tableColumn id="16" xr3:uid="{3D56AED3-5524-4B68-9FFF-A957441F8C26}" name="STT"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38B81C68-D88B-4E60-A453-28B536426E29}" name="Table1" displayName="Table1" ref="A1:O21" totalsRowShown="0">
+  <autoFilter ref="A1:O21" xr:uid="{38B81C68-D88B-4E60-A453-28B536426E29}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{FF61D839-866A-4704-99CF-09C59F6E9C3D}" name="UserName"/>
     <tableColumn id="2" xr3:uid="{9525867C-2307-4A6E-85D6-561D0F4027BE}" name="Password"/>
     <tableColumn id="3" xr3:uid="{61375415-0EB1-4708-AFF8-3FBB1B04F998}" name="TrangThai"/>
@@ -482,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1805B66-47B5-402B-BF1C-0786A8258848}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
@@ -503,10 +493,11 @@
     <col min="12" max="12" width="10.88671875" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,241 +543,108 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
+        <v>123123</v>
+      </c>
+      <c r="G2">
+        <v>3213</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44719</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>123123</v>
-      </c>
-      <c r="H2">
+      <c r="K2">
+        <v>21312</v>
+      </c>
+      <c r="L2">
+        <v>3123</v>
+      </c>
+      <c r="M2">
         <v>3213</v>
       </c>
-      <c r="I2" s="1">
-        <v>44719</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>21312</v>
-      </c>
-      <c r="M2">
-        <v>3123</v>
-      </c>
       <c r="N2">
-        <v>3213</v>
+        <v>321321</v>
       </c>
       <c r="O2">
-        <v>321321</v>
-      </c>
-      <c r="P2">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>123456</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>12312311223</v>
-      </c>
-      <c r="H15">
-        <v>3213</v>
-      </c>
-      <c r="I15" s="1">
-        <v>44719</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>21312</v>
-      </c>
-      <c r="M15">
-        <v>3123</v>
-      </c>
-      <c r="N15">
-        <v>3213</v>
-      </c>
-      <c r="O15">
-        <v>321321</v>
-      </c>
-      <c r="P15">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>123456</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>12312311223</v>
-      </c>
-      <c r="H20">
-        <v>3213</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
